--- a/ref/CNC Pipe Bending Machine - Pin Configuration.xlsx
+++ b/ref/CNC Pipe Bending Machine - Pin Configuration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POLMAN\MF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nur Jamiludin\Documents\GitHub\cnc_pipe_bending_machine\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444D943E-34AD-42DA-AD38-F489E72D6859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09C83FF-1739-4A21-8153-F31495723A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
   <si>
     <t>coak</t>
   </si>
@@ -3905,7 +3905,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>14111</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>2597</xdr:rowOff>
+      <xdr:rowOff>14377</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3920,8 +3920,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4264138" y="6250324"/>
-          <a:ext cx="604195" cy="172829"/>
+          <a:off x="4293958" y="11335383"/>
+          <a:ext cx="608455" cy="180881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4968,7 +4968,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 55412"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -6396,13 +6396,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>6865</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>175261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>601820</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>2288</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6457,13 +6457,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>6865</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>3637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>601820</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>13730</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6518,13 +6518,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>20976</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>175261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9153</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>2288</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6579,13 +6579,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>20976</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>3637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9153</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>13730</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6640,13 +6640,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>599531</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>175261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>587709</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>2288</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6701,13 +6701,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>599531</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>3637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>587709</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>13730</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6762,13 +6762,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>14110</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>88775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>20976</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>96476</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6824,13 +6824,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>601820</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>100405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>20976</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>88773</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6886,13 +6886,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>601820</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>88775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>599531</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>100406</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6978,7 +6978,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 62020"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7037,7 +7037,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 57693"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7790,13 +7790,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>14378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>3764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7851,13 +7851,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>7812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>8585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7912,13 +7912,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>11045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>3465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7973,14 +7973,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>19663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>9047</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>14377</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7996,7 +7996,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9798170" y="11341833"/>
-          <a:ext cx="608455" cy="169101"/>
+          <a:ext cx="1011021" cy="174431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8034,13 +8034,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>11045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>3465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8095,13 +8095,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>19663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>9047</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8156,13 +8156,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16693</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>3985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>14110</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>173088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8217,13 +8217,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>14110</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>98542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>587709</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>88537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8276,13 +8276,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16693</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>5948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>14110</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>7287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8337,13 +8337,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>12474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>1858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8428,7 +8428,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 30469"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8487,7 +8487,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 30234"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8546,7 +8546,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 52725"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8605,7 +8605,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 52725"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8634,13 +8634,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>14378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>3764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8695,13 +8695,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>14378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>3764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8756,14 +8756,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>14378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>3764</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>7188</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8778,8 +8778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9798170" y="10797397"/>
-          <a:ext cx="608455" cy="169103"/>
+          <a:off x="9798170" y="11336548"/>
+          <a:ext cx="1011021" cy="172527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8817,13 +8817,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>14378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>3764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8878,13 +8878,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>14378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>3764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8939,13 +8939,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>19663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>9047</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9000,13 +9000,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>14378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>4606</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>3764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9061,13 +9061,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16693</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>5948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>14110</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>7287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9122,13 +9122,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>14110</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>96476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7189</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>98930</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9184,13 +9184,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>599533</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>11751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>11151</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>16490</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9245,13 +9245,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>599533</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>10548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>11151</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>13730</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9367,13 +9367,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>599533</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>10548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>11151</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>13730</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9428,13 +9428,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>14110</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>103979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>11151</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>96476</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9447,18 +9447,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="497" idx="3"/>
+          <a:stCxn id="26" idx="3"/>
           <a:endCxn id="493" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1236185" y="5495488"/>
-          <a:ext cx="9579551" cy="711365"/>
+          <a:off x="1236185" y="10168130"/>
+          <a:ext cx="9579551" cy="1969384"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 110115"/>
+            <a:gd name="adj1" fmla="val 110415"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9488,16 +9488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7055</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>97854</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14112</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>93514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>599533</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>101999</xdr:rowOff>
+      <xdr:colOff>599536</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>94821</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9509,14 +9509,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="494" idx="1"/>
-          <a:endCxn id="143" idx="3"/>
+          <a:endCxn id="148" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2451206" y="5669080"/>
-          <a:ext cx="7328270" cy="4145"/>
+          <a:off x="4902414" y="10517099"/>
+          <a:ext cx="4877065" cy="1307"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9608,16 +9607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7055</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>90666</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14112</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>94822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>599533</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>101999</xdr:rowOff>
+      <xdr:colOff>599534</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>99758</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9629,14 +9628,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="498" idx="1"/>
-          <a:endCxn id="509" idx="3"/>
+          <a:endCxn id="149" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="2451206" y="5841609"/>
-          <a:ext cx="7328270" cy="11333"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4902414" y="10698124"/>
+          <a:ext cx="4877063" cy="4936"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9667,16 +9665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7055</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>91607</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14112</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>599533</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>103979</xdr:rowOff>
+      <xdr:colOff>599536</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>96799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9688,14 +9686,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="493" idx="1"/>
-          <a:endCxn id="142" idx="3"/>
+          <a:endCxn id="147" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2451206" y="5483116"/>
-          <a:ext cx="7328270" cy="12372"/>
+          <a:off x="4902414" y="10339727"/>
+          <a:ext cx="4877065" cy="940"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10504,16 +10501,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7055</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>99669</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14112</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>599533</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>103979</xdr:rowOff>
+      <xdr:colOff>599536</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>96802</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10525,14 +10522,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="493" idx="1"/>
-          <a:endCxn id="141" idx="3"/>
+          <a:endCxn id="146" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2451206" y="5491178"/>
-          <a:ext cx="7328270" cy="4310"/>
+          <a:off x="4902414" y="10160100"/>
+          <a:ext cx="4877065" cy="853"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10553,6 +10549,547 @@
         </a:fillRef>
         <a:effectRef idx="2">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6865</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>182316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601820</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6347A920-3F8C-4B38-89E8-780671A8C8D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6936752" y="4675241"/>
+          <a:ext cx="803426" cy="186463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6865</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>10695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>20786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F567A49-114B-4589-8D2B-8E6015B20E89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6936752" y="4863053"/>
+          <a:ext cx="803426" cy="189808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6865</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>182316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601820</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9345</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC02CE2-539D-49DC-809B-F1C4438E9A3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6936752" y="5034674"/>
+          <a:ext cx="803426" cy="186463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6865</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>10694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601820</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>20785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{850C6A6F-D6C6-4865-A51F-DF86D81359CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6936752" y="5222486"/>
+          <a:ext cx="803426" cy="189808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16693</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>5948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14110</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>7287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B04282-D6C0-429C-B02B-A3AA67D177B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="627731" y="12226703"/>
+          <a:ext cx="608454" cy="181056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7056</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6866</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99669</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Connector: Elbow 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E80C3B-E0AD-4D16-B560-C5075127E9EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="141" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2451207" y="5487340"/>
+          <a:ext cx="5916093" cy="3838"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7056</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6866</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Connector: Elbow 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{890D1497-B01B-4616-992F-0F1D2C772336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="142" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2451207" y="5662834"/>
+          <a:ext cx="5916093" cy="183941"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7056</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>98474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6866</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Connector: Elbow 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0207A48-F391-477E-912A-9857753303EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="136" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2451207" y="4591399"/>
+          <a:ext cx="5916093" cy="1085427"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7957"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7056</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>98473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6866</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>105598</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Connector: Elbow 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CECA96-D22B-40C1-BA76-2122115957B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="136" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2451207" y="4591398"/>
+          <a:ext cx="5916093" cy="1444860"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7957"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -12409,11 +12946,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:T81"/>
+  <dimension ref="B2:T84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T35" sqref="T35"/>
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12589,33 +13126,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F17" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F18" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F19" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F20" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="F21" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="F22" s="12"/>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J22" s="8">
         <v>33</v>
       </c>
@@ -12623,7 +13159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J23" s="8">
         <v>34</v>
       </c>
@@ -12631,7 +13167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="J24" s="8">
         <v>35</v>
       </c>
@@ -12639,7 +13175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>72</v>
       </c>
@@ -12650,7 +13186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>73</v>
       </c>
@@ -12658,7 +13194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D27" s="8" t="s">
         <v>60</v>
       </c>
@@ -12669,7 +13205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D28" s="8" t="s">
         <v>61</v>
       </c>
@@ -12680,7 +13216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D29" s="8" t="s">
         <v>62</v>
       </c>
@@ -12691,7 +13227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D30" s="8" t="s">
         <v>63</v>
       </c>
@@ -12702,36 +13238,48 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="S31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="P31" s="8">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="S32" t="s">
-        <v>89</v>
+      <c r="P32" s="8">
+        <v>34</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S33" t="s">
-        <v>90</v>
+      <c r="P33" s="8">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D34" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S34" t="s">
-        <v>86</v>
+      <c r="P34" s="8">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="T34" t="s">
         <v>87</v>
@@ -12900,12 +13448,6 @@
       <c r="Q54" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S54" t="s">
-        <v>80</v>
-      </c>
-      <c r="T54" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D55" s="8" t="s">
@@ -12929,12 +13471,6 @@
       <c r="Q55" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="S55" t="s">
-        <v>81</v>
-      </c>
-      <c r="T55" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
@@ -12943,22 +13479,13 @@
       <c r="H56" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="S56" t="s">
-        <v>82</v>
-      </c>
-      <c r="T56" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.3">
       <c r="H57" s="8" t="s">
         <v>60</v>
       </c>
       <c r="S57" t="s">
-        <v>83</v>
-      </c>
-      <c r="T57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.3">
@@ -12966,10 +13493,7 @@
         <v>61</v>
       </c>
       <c r="S58" t="s">
-        <v>84</v>
-      </c>
-      <c r="T58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.3">
@@ -12977,91 +13501,141 @@
         <v>62</v>
       </c>
       <c r="S59" t="s">
-        <v>85</v>
-      </c>
-      <c r="T59" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.3">
       <c r="H60" s="8" t="s">
         <v>63</v>
       </c>
+      <c r="S60" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.3">
       <c r="H61" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="S61" t="s">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.3">
       <c r="H62" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="S62" t="s">
+        <v>81</v>
+      </c>
+      <c r="T62" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.3">
       <c r="H63" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="S63" t="s">
+        <v>82</v>
+      </c>
+      <c r="T63" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.3">
       <c r="H64" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B66" s="8" t="s">
+      <c r="S64" t="s">
+        <v>83</v>
+      </c>
+      <c r="T64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H65" s="12"/>
+      <c r="S65" t="s">
+        <v>84</v>
+      </c>
+      <c r="T65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H66" s="12"/>
+      <c r="S66" t="s">
+        <v>85</v>
+      </c>
+      <c r="T66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B68" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="M66" s="8">
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B69" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M69" s="8">
         <v>31</v>
       </c>
-      <c r="N66" s="8" t="s">
+      <c r="N69" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P66" s="8">
+      <c r="P69" s="8">
         <v>31</v>
       </c>
-      <c r="Q66" s="8" t="s">
+      <c r="Q69" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="M67" s="8">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="M70" s="8">
         <v>32</v>
       </c>
-      <c r="N67" s="8" t="s">
+      <c r="N70" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P67" s="8">
+      <c r="P70" s="8">
         <v>32</v>
       </c>
-      <c r="Q67" s="8" t="s">
+      <c r="Q70" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J69" s="8">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="J72" s="8">
         <v>31</v>
       </c>
-      <c r="K69" s="8" t="s">
+      <c r="K72" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="J70" s="8">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="J73" s="8">
         <v>32</v>
       </c>
-      <c r="K70" s="8" t="s">
+      <c r="K73" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B71" s="8" t="s">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B74" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="8" t="s">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="8" t="s">
         <v>72</v>
       </c>
     </row>
